--- a/Dk/ugynok.xlsx
+++ b/Dk/ugynok.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Helyi_munkakönyvtár\Gyarmati Gábor 10.B\pythonsuli\Dk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAB76A2C-81F5-4883-91E5-2F96D971C300}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2EE879-6708-4185-BAFE-74F12E0948C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{A7F61A32-10A2-418F-BD16-5D30E2B5654E}"/>
   </bookViews>
@@ -280,20 +280,31 @@
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
       </font>
     </dxf>
     <dxf>
@@ -302,14 +313,66 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
-        <color theme="4"/>
+        <color theme="4" tint="-0.24994659260841701"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -624,7 +687,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D57"/>
+      <selection activeCell="A2" sqref="A2:E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1617,11 +1680,24 @@
     <sortCondition ref="C2:C57"/>
   </sortState>
   <conditionalFormatting sqref="E2:E57">
-    <cfRule type="aboveAverage" dxfId="4" priority="4"/>
+    <cfRule type="aboveAverage" dxfId="9" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:D57">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>D2&gt;1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:E57">
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>C2="Dombvidék"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>C2="Tópart"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:E57">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>C2="Tópart"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
